--- a/Pizzaria/Analise_Eventos.xlsx
+++ b/Pizzaria/Analise_Eventos.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Desktop\Pizzaria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proprietário\Documents\eng_requisitos\Pizzaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C0F94E4-09C7-4024-B68A-B8DE2EBCFBCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E31751-CE3B-4DE7-989C-9E9672589A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="2070" windowWidth="21090" windowHeight="9495" xr2:uid="{3B28392E-6D45-4461-A547-BF68C094540E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3B28392E-6D45-4461-A547-BF68C094540E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>Capacidade</t>
   </si>
@@ -181,6 +182,39 @@
   </si>
   <si>
     <t>x(18)</t>
+  </si>
+  <si>
+    <t>Cliente realiza pedido</t>
+  </si>
+  <si>
+    <t>Garçom entrega pedido ao setor de bebidas</t>
+  </si>
+  <si>
+    <t>Garçom entrega o pedido ao pizzaiolo</t>
+  </si>
+  <si>
+    <t>Pizzaiolo entrega itens prontos</t>
+  </si>
+  <si>
+    <t>Setor de Bebidas entrega itens prontos</t>
+  </si>
+  <si>
+    <t>Cliente solicita conta</t>
+  </si>
+  <si>
+    <t>x(1)</t>
+  </si>
+  <si>
+    <t>x(2)</t>
+  </si>
+  <si>
+    <t>x(3)</t>
+  </si>
+  <si>
+    <t>x(4)</t>
+  </si>
+  <si>
+    <t>X(2)</t>
   </si>
 </sst>
 </file>
@@ -260,11 +294,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -273,16 +304,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -599,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8EB6B2-F687-459A-AC88-A3FCD8D3C98D}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,445 +655,650 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="7" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="7"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="9" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
         <v>7</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
         <v>8</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
         <v>11</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
         <v>12</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>13</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
         <v>14</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
         <v>15</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
         <v>16</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
         <v>17</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2">
         <v>18</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>19</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="2">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="2">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="19">
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143286B8-20D4-4F9E-A78B-CB4A74F7AC5E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Pizzaria/Analise_Eventos.xlsx
+++ b/Pizzaria/Analise_Eventos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proprietário\Documents\eng_requisitos\Pizzaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E31751-CE3B-4DE7-989C-9E9672589A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F299F29C-0E99-487F-9C00-3B0796C4C1FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3B28392E-6D45-4461-A547-BF68C094540E}"/>
   </bookViews>
@@ -636,7 +636,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
